--- a/data/long_razon/P23_4-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_4-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-30,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-21,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>73,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-50,97; -0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 67,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 6,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,92; 135,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,07; -5,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 79,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-22,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 39,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,58; 12,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 8,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 63,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 11,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 21,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 82,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 139,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 100,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 88,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 59,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 81,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-18,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 5,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 24,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 75,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,2; -3,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 37,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_4-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_4-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +787,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1212,14 +913,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_4-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_4-Urba-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.2423363918297712</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.008308488008581911</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5277437457707721</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1963351775838202</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2113025948520089</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.6774563775178063</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.000931532017444142</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.08008076203587423</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2285497846201882</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3011272979269052</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.2117739291146957</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1362781768655159</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4808077422768108</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3038225161076362</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.06317435599894465</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1539373819031892</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.400532152082147</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.3012519586663277</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2757273226560906</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2347458846474792</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3940041139485714</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.01344362942044858</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.0572153022998573</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1057123163974582</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.1301624743327884</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.5134080039250669</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.272716508667985</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.7249790165793076</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.09796994947139576</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.240530592302254</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3810260022716002</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.5012665456510554</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.01568170946152452</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.6325970646212224</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.5551913094715905</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.4167876451078745</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.01875128956756433</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2283603868890957</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5474915079856271</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1592116892302448</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.202558059324844</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2175706359021772</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.05894543953976093</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.618938838950561</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.1233300741225276</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.02695533174155467</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.2748741558126296</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1333873550479688</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.3464263053536011</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4709939941576139</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.009977203988989941</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5396170831853535</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4381012966155716</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.09545929069925545</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2223848059481441</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1048940665179373</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3260830124314107</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2198566958057805</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.04217206920888004</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2911680554788345</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.4200771278801809</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1079988042216673</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.386631525959428</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5524945053213552</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1007082205939695</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6887763787366843</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5357431722868666</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.965136697646128</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1144167269099121</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.2351509151747493</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.6751758372707994</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.7124473735383201</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,17 +931,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1128916187483655</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.2525274020410415</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4757292837056926</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.1094274365937029</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.04891348910163502</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.0362220838389482</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.005486785505802828</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1504227821881543</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.2494306165154562</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +969,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6079216901336215</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3658318733166072</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5485467043434462</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.3787756836671268</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.4217071344370282</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5902266646561244</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.3706208896446917</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2282712805773751</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3976363524491461</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +1007,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.9598852666636808</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.710381237381152</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.887072376675488</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.927096324119598</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.9288841079401694</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.075949874809167</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.5857658914101647</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.8661518214498387</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.749446493452629</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,18 +1049,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1551297417999565</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.07374689765768846</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5275346825858697</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.09978788849196737</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1679474793115797</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.398183979960121</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.01929932274178514</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1736749390043276</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.1615596180304985</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.1422204924793911</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.2415220112068651</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.1356304129817774</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1093,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.329899333012452</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2848702148527678</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.152772768333533</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1824480258855841</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.32416235365983</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.1466625221206296</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1873999463798798</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1663923293434967</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.285540270568383</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.02686398472301859</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.05097110066107155</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.08192121962628049</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1137,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.09796247139768463</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2212887300781194</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.055992581109496</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4667505635778006</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.01472209302729634</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.7088400893053984</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2667507332475251</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.5311209963538716</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.009112544862106284</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.3391799001539308</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.5342398204830942</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.3998952137808605</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
